--- a/azure/vm-list-sizes.xlsx
+++ b/azure/vm-list-sizes.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vadimivlev/Projects/projects/setup-ubuntu/azure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9A7FD03-AA6E-734C-9C27-0D8157DA7F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7AF410E3-1E94-2D4A-BFFE-B918FE1C4574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1860" windowWidth="28160" windowHeight="17440"/>
+    <workbookView xWindow="21720" yWindow="460" windowWidth="16680" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="vm-list-sizes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vm-list-sizes'!$A$1:$F$347</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1559,9 +1562,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1917,10 +1921,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B354" sqref="B354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1930,31 +1935,31 @@
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>51200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -2014,7 +2019,7 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="1">
         <v>32</v>
       </c>
@@ -2034,7 +2039,7 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="1">
         <v>64</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>819200</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>102400</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="1">
         <v>16</v>
       </c>
@@ -2094,7 +2099,7 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -2114,7 +2119,7 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="1">
         <v>64</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>819200</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2174,7 +2179,7 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="1">
         <v>32</v>
       </c>
@@ -2194,7 +2199,7 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="1">
         <v>64</v>
       </c>
@@ -2214,7 +2219,7 @@
         <v>819200</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -2234,7 +2239,7 @@
         <v>102400</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2254,7 +2259,7 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="1">
         <v>64</v>
       </c>
@@ -2294,7 +2299,7 @@
         <v>819200</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -2314,7 +2319,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -2334,7 +2339,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -2354,7 +2359,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="1">
         <v>32</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="1">
         <v>64</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -2414,7 +2419,7 @@
         <v>20480</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>71680</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>138240</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>291840</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v>138240</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="1">
         <v>16</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>619520</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -2534,7 +2539,7 @@
         <v>291840</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="1">
         <v>16</v>
       </c>
@@ -2554,7 +2559,7 @@
         <v>619520</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -2574,7 +2579,7 @@
         <v>20480</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>40960</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>61440</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -2634,7 +2639,7 @@
         <v>122880</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" s="1">
         <v>16</v>
       </c>
@@ -2654,7 +2659,7 @@
         <v>245760</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -2674,7 +2679,7 @@
         <v>10240</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -2694,7 +2699,7 @@
         <v>20480</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -2714,7 +2719,7 @@
         <v>20480</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -2734,7 +2739,7 @@
         <v>40960</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" s="1">
         <v>8</v>
       </c>
@@ -2754,7 +2759,7 @@
         <v>40960</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -2774,7 +2779,7 @@
         <v>81920</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -2794,7 +2799,7 @@
         <v>81920</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -2834,7 +2839,7 @@
         <v>102400</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" s="1">
         <v>16</v>
       </c>
@@ -2854,7 +2859,7 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" s="1">
         <v>32</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48" s="1">
         <v>32</v>
       </c>
@@ -2894,7 +2899,7 @@
         <v>819200</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" s="1">
         <v>32</v>
       </c>
@@ -2914,7 +2919,7 @@
         <v>1228800</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" s="1">
         <v>32</v>
       </c>
@@ -2934,7 +2939,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -2954,7 +2959,7 @@
         <v>51200</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" s="1">
         <v>8</v>
       </c>
@@ -2974,7 +2979,7 @@
         <v>102400</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" s="1">
         <v>16</v>
       </c>
@@ -2994,7 +2999,7 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="1">
         <v>32</v>
       </c>
@@ -3014,7 +3019,7 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" s="1">
         <v>32</v>
       </c>
@@ -3034,7 +3039,7 @@
         <v>512000</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" s="1">
         <v>32</v>
       </c>
@@ -3054,7 +3059,7 @@
         <v>819200</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" s="1">
         <v>32</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>1228800</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="1">
         <v>32</v>
       </c>
@@ -3094,7 +3099,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" s="1">
         <v>32</v>
       </c>
@@ -3114,7 +3119,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -3134,7 +3139,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -3174,7 +3179,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" s="1">
         <v>4</v>
       </c>
@@ -3194,7 +3199,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" s="1">
         <v>4</v>
       </c>
@@ -3234,7 +3239,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" s="1">
         <v>16</v>
       </c>
@@ -3254,7 +3259,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -3274,7 +3279,7 @@
         <v>98304</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" s="1">
         <v>32</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" s="1">
         <v>32</v>
       </c>
@@ -3314,7 +3319,7 @@
         <v>163840</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" s="1">
         <v>4</v>
       </c>
@@ -3334,7 +3339,7 @@
         <v>7168</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" s="1">
         <v>8</v>
       </c>
@@ -3374,7 +3379,7 @@
         <v>28672</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" s="1">
         <v>32</v>
       </c>
@@ -3394,7 +3399,7 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" s="1">
         <v>64</v>
       </c>
@@ -3414,7 +3419,7 @@
         <v>114688</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" s="1">
         <v>8</v>
       </c>
@@ -3434,7 +3439,7 @@
         <v>28672</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" s="1">
         <v>8</v>
       </c>
@@ -3454,7 +3459,7 @@
         <v>28672</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" s="1">
         <v>16</v>
       </c>
@@ -3474,7 +3479,7 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" s="1">
         <v>16</v>
       </c>
@@ -3494,7 +3499,7 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" s="1">
         <v>16</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" s="1">
         <v>32</v>
       </c>
@@ -3534,7 +3539,7 @@
         <v>114688</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" s="1">
         <v>32</v>
       </c>
@@ -3554,7 +3559,7 @@
         <v>114688</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" s="1">
         <v>32</v>
       </c>
@@ -3574,7 +3579,7 @@
         <v>114688</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" s="1">
         <v>64</v>
       </c>
@@ -3594,7 +3599,7 @@
         <v>229376</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" s="1">
         <v>64</v>
       </c>
@@ -3614,7 +3619,7 @@
         <v>229376</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" s="1">
         <v>64</v>
       </c>
@@ -3634,7 +3639,7 @@
         <v>229376</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" s="1">
         <v>8</v>
       </c>
@@ -3674,7 +3679,7 @@
         <v>28672</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" s="1">
         <v>32</v>
       </c>
@@ -3694,7 +3699,7 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" s="1">
         <v>64</v>
       </c>
@@ -3714,7 +3719,7 @@
         <v>114688</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" s="1">
         <v>8</v>
       </c>
@@ -3734,7 +3739,7 @@
         <v>28672</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -3754,7 +3759,7 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" s="1">
         <v>32</v>
       </c>
@@ -3774,7 +3779,7 @@
         <v>114688</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" s="1">
         <v>64</v>
       </c>
@@ -3794,7 +3799,7 @@
         <v>229376</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" s="1">
         <v>4</v>
       </c>
@@ -3814,7 +3819,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" s="1">
         <v>8</v>
       </c>
@@ -3834,7 +3839,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" s="1">
         <v>16</v>
       </c>
@@ -3854,7 +3859,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" s="1">
         <v>32</v>
       </c>
@@ -3874,7 +3879,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" s="1">
         <v>64</v>
       </c>
@@ -3894,7 +3899,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" s="1">
         <v>4</v>
       </c>
@@ -3934,7 +3939,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" s="1">
         <v>16</v>
       </c>
@@ -3954,7 +3959,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" s="1">
         <v>32</v>
       </c>
@@ -3974,7 +3979,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" s="1">
         <v>32</v>
       </c>
@@ -3994,7 +3999,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" s="1">
         <v>32</v>
       </c>
@@ -4014,7 +4019,7 @@
         <v>393216</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" s="1">
         <v>32</v>
       </c>
@@ -4034,7 +4039,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" s="1">
         <v>4</v>
       </c>
@@ -4054,7 +4059,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -4074,7 +4079,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" s="1">
         <v>8</v>
       </c>
@@ -4094,7 +4099,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" s="1">
         <v>16</v>
       </c>
@@ -4114,7 +4119,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" s="1">
         <v>16</v>
       </c>
@@ -4134,7 +4139,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" s="1">
         <v>16</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" s="1">
         <v>32</v>
       </c>
@@ -4174,7 +4179,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" s="1">
         <v>32</v>
       </c>
@@ -4194,7 +4199,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" s="1">
         <v>32</v>
       </c>
@@ -4214,7 +4219,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" s="1">
         <v>32</v>
       </c>
@@ -4234,7 +4239,7 @@
         <v>327680</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" s="1">
         <v>32</v>
       </c>
@@ -4254,7 +4259,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" s="1">
         <v>32</v>
       </c>
@@ -4274,7 +4279,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" s="1">
         <v>32</v>
       </c>
@@ -4294,7 +4299,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" s="1">
         <v>32</v>
       </c>
@@ -4314,7 +4319,7 @@
         <v>786432</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" s="1">
         <v>32</v>
       </c>
@@ -4334,7 +4339,7 @@
         <v>884736</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" s="1">
         <v>32</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>884736</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" s="1">
         <v>32</v>
       </c>
@@ -4374,7 +4379,7 @@
         <v>884736</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" s="1">
         <v>64</v>
       </c>
@@ -4394,7 +4399,7 @@
         <v>286720</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" s="1">
         <v>32</v>
       </c>
@@ -4414,7 +4419,7 @@
         <v>884736</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" s="1">
         <v>64</v>
       </c>
@@ -4434,7 +4439,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" s="1">
         <v>12</v>
       </c>
@@ -4454,7 +4459,7 @@
         <v>344064</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" s="1">
         <v>24</v>
       </c>
@@ -4474,7 +4479,7 @@
         <v>688128</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" s="1">
         <v>32</v>
       </c>
@@ -4494,7 +4499,7 @@
         <v>1376256</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" s="1">
         <v>12</v>
       </c>
@@ -4514,7 +4519,7 @@
         <v>344064</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" s="1">
         <v>24</v>
       </c>
@@ -4534,7 +4539,7 @@
         <v>688128</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" s="1">
         <v>32</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>1376256</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" s="1">
         <v>24</v>
       </c>
@@ -4574,7 +4579,7 @@
         <v>389120</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" s="1">
         <v>48</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>696320</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" s="1">
         <v>64</v>
       </c>
@@ -4614,7 +4619,7 @@
         <v>1474560</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" s="1">
         <v>24</v>
       </c>
@@ -4634,7 +4639,7 @@
         <v>389120</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" s="1">
         <v>48</v>
       </c>
@@ -4654,7 +4659,7 @@
         <v>696320</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" s="1">
         <v>64</v>
       </c>
@@ -4674,7 +4679,7 @@
         <v>1474560</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" s="1">
         <v>4</v>
       </c>
@@ -4714,7 +4719,7 @@
         <v>102400</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" s="1">
         <v>16</v>
       </c>
@@ -4734,7 +4739,7 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" s="1">
         <v>32</v>
       </c>
@@ -4754,7 +4759,7 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" s="1">
         <v>32</v>
       </c>
@@ -4774,7 +4779,7 @@
         <v>819200</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" s="1">
         <v>32</v>
       </c>
@@ -4794,7 +4799,7 @@
         <v>1228800</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" s="1">
         <v>32</v>
       </c>
@@ -4814,7 +4819,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" s="1">
         <v>32</v>
       </c>
@@ -4834,7 +4839,7 @@
         <v>2457600</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" s="1">
         <v>4</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" s="1">
         <v>16</v>
       </c>
@@ -4894,7 +4899,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" s="1">
         <v>32</v>
       </c>
@@ -4914,7 +4919,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" s="1">
         <v>32</v>
       </c>
@@ -4934,7 +4939,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151" s="1">
         <v>32</v>
       </c>
@@ -4954,7 +4959,7 @@
         <v>393216</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" s="1">
         <v>32</v>
       </c>
@@ -4974,7 +4979,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" s="1">
         <v>32</v>
       </c>
@@ -4994,7 +4999,7 @@
         <v>786432</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" s="1">
         <v>4</v>
       </c>
@@ -5014,7 +5019,7 @@
         <v>51200</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -5034,7 +5039,7 @@
         <v>102400</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" s="1">
         <v>16</v>
       </c>
@@ -5054,7 +5059,7 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" s="1">
         <v>32</v>
       </c>
@@ -5074,7 +5079,7 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" s="1">
         <v>32</v>
       </c>
@@ -5094,7 +5099,7 @@
         <v>512000</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1">
       <c r="A159" s="1">
         <v>32</v>
       </c>
@@ -5114,7 +5119,7 @@
         <v>819200</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160" s="1">
         <v>32</v>
       </c>
@@ -5134,7 +5139,7 @@
         <v>1228800</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" hidden="1">
       <c r="A161" s="1">
         <v>32</v>
       </c>
@@ -5154,7 +5159,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" hidden="1">
       <c r="A162" s="1">
         <v>32</v>
       </c>
@@ -5174,7 +5179,7 @@
         <v>2457600</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" hidden="1">
       <c r="A163" s="1">
         <v>4</v>
       </c>
@@ -5194,7 +5199,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" hidden="1">
       <c r="A164" s="1">
         <v>8</v>
       </c>
@@ -5214,7 +5219,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" hidden="1">
       <c r="A165" s="1">
         <v>16</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" hidden="1">
       <c r="A166" s="1">
         <v>32</v>
       </c>
@@ -5254,7 +5259,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" hidden="1">
       <c r="A167" s="1">
         <v>32</v>
       </c>
@@ -5274,7 +5279,7 @@
         <v>327680</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" hidden="1">
       <c r="A168" s="1">
         <v>32</v>
       </c>
@@ -5294,7 +5299,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" hidden="1">
       <c r="A169" s="1">
         <v>32</v>
       </c>
@@ -5314,7 +5319,7 @@
         <v>786432</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" hidden="1">
       <c r="A170" s="1">
         <v>32</v>
       </c>
@@ -5334,7 +5339,7 @@
         <v>884736</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" hidden="1">
       <c r="A171" s="1">
         <v>32</v>
       </c>
@@ -5354,7 +5359,7 @@
         <v>1376256</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" hidden="1">
       <c r="A172" s="1">
         <v>4</v>
       </c>
@@ -5374,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" hidden="1">
       <c r="A173" s="1">
         <v>8</v>
       </c>
@@ -5394,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" hidden="1">
       <c r="A174" s="1">
         <v>16</v>
       </c>
@@ -5414,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" hidden="1">
       <c r="A175" s="1">
         <v>32</v>
       </c>
@@ -5434,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" hidden="1">
       <c r="A176" s="1">
         <v>32</v>
       </c>
@@ -5454,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" hidden="1">
       <c r="A177" s="1">
         <v>32</v>
       </c>
@@ -5474,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" hidden="1">
       <c r="A178" s="1">
         <v>32</v>
       </c>
@@ -5494,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" hidden="1">
       <c r="A179" s="1">
         <v>32</v>
       </c>
@@ -5514,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" hidden="1">
       <c r="A180" s="1">
         <v>4</v>
       </c>
@@ -5534,7 +5539,7 @@
         <v>76800</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" hidden="1">
       <c r="A181" s="1">
         <v>8</v>
       </c>
@@ -5554,7 +5559,7 @@
         <v>153600</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" hidden="1">
       <c r="A182" s="1">
         <v>16</v>
       </c>
@@ -5574,7 +5579,7 @@
         <v>307200</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" hidden="1">
       <c r="A183" s="1">
         <v>32</v>
       </c>
@@ -5594,7 +5599,7 @@
         <v>614400</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" hidden="1">
       <c r="A184" s="1">
         <v>32</v>
       </c>
@@ -5614,7 +5619,7 @@
         <v>768000</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" hidden="1">
       <c r="A185" s="1">
         <v>32</v>
       </c>
@@ -5634,7 +5639,7 @@
         <v>1228800</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" hidden="1">
       <c r="A186" s="1">
         <v>32</v>
       </c>
@@ -5654,7 +5659,7 @@
         <v>1843200</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" hidden="1">
       <c r="A187" s="1">
         <v>32</v>
       </c>
@@ -5674,7 +5679,7 @@
         <v>2457600</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" hidden="1">
       <c r="A188" s="1">
         <v>4</v>
       </c>
@@ -5694,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" hidden="1">
       <c r="A189" s="1">
         <v>8</v>
       </c>
@@ -5714,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" hidden="1">
       <c r="A190" s="1">
         <v>8</v>
       </c>
@@ -5734,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" hidden="1">
       <c r="A191" s="1">
         <v>16</v>
       </c>
@@ -5754,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" hidden="1">
       <c r="A192" s="1">
         <v>16</v>
       </c>
@@ -5774,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" hidden="1">
       <c r="A193" s="1">
         <v>16</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" hidden="1">
       <c r="A194" s="1">
         <v>32</v>
       </c>
@@ -5814,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" hidden="1">
       <c r="A195" s="1">
         <v>32</v>
       </c>
@@ -5834,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" hidden="1">
       <c r="A196" s="1">
         <v>32</v>
       </c>
@@ -5854,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" hidden="1">
       <c r="A197" s="1">
         <v>32</v>
       </c>
@@ -5874,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" hidden="1">
       <c r="A198" s="1">
         <v>32</v>
       </c>
@@ -5894,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" hidden="1">
       <c r="A199" s="1">
         <v>32</v>
       </c>
@@ -5914,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" hidden="1">
       <c r="A200" s="1">
         <v>32</v>
       </c>
@@ -5934,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" hidden="1">
       <c r="A201" s="1">
         <v>32</v>
       </c>
@@ -5954,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" hidden="1">
       <c r="A202" s="1">
         <v>32</v>
       </c>
@@ -5974,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" hidden="1">
       <c r="A203" s="1">
         <v>32</v>
       </c>
@@ -5994,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" hidden="1">
       <c r="A204" s="1">
         <v>32</v>
       </c>
@@ -6014,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" hidden="1">
       <c r="A205" s="1">
         <v>32</v>
       </c>
@@ -6034,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" hidden="1">
       <c r="A206" s="1">
         <v>4</v>
       </c>
@@ -6054,7 +6059,7 @@
         <v>76800</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" hidden="1">
       <c r="A207" s="1">
         <v>8</v>
       </c>
@@ -6074,7 +6079,7 @@
         <v>153600</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" hidden="1">
       <c r="A208" s="1">
         <v>8</v>
       </c>
@@ -6094,7 +6099,7 @@
         <v>153600</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" hidden="1">
       <c r="A209" s="1">
         <v>16</v>
       </c>
@@ -6114,7 +6119,7 @@
         <v>307200</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" hidden="1">
       <c r="A210" s="1">
         <v>16</v>
       </c>
@@ -6134,7 +6139,7 @@
         <v>307200</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" hidden="1">
       <c r="A211" s="1">
         <v>16</v>
       </c>
@@ -6154,7 +6159,7 @@
         <v>307200</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" hidden="1">
       <c r="A212" s="1">
         <v>32</v>
       </c>
@@ -6174,7 +6179,7 @@
         <v>614400</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" hidden="1">
       <c r="A213" s="1">
         <v>32</v>
       </c>
@@ -6194,7 +6199,7 @@
         <v>614400</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" hidden="1">
       <c r="A214" s="1">
         <v>32</v>
       </c>
@@ -6214,7 +6219,7 @@
         <v>614400</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" hidden="1">
       <c r="A215" s="1">
         <v>32</v>
       </c>
@@ -6234,7 +6239,7 @@
         <v>768000</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" hidden="1">
       <c r="A216" s="1">
         <v>32</v>
       </c>
@@ -6254,7 +6259,7 @@
         <v>1228800</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" hidden="1">
       <c r="A217" s="1">
         <v>32</v>
       </c>
@@ -6274,7 +6279,7 @@
         <v>1228800</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" hidden="1">
       <c r="A218" s="1">
         <v>32</v>
       </c>
@@ -6294,7 +6299,7 @@
         <v>1228800</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" hidden="1">
       <c r="A219" s="1">
         <v>32</v>
       </c>
@@ -6314,7 +6319,7 @@
         <v>1843200</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" hidden="1">
       <c r="A220" s="1">
         <v>32</v>
       </c>
@@ -6334,7 +6339,7 @@
         <v>2457600</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" hidden="1">
       <c r="A221" s="1">
         <v>32</v>
       </c>
@@ -6354,7 +6359,7 @@
         <v>2457600</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" hidden="1">
       <c r="A222" s="1">
         <v>32</v>
       </c>
@@ -6374,7 +6379,7 @@
         <v>2457600</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" hidden="1">
       <c r="A223" s="1">
         <v>32</v>
       </c>
@@ -6394,7 +6399,7 @@
         <v>4362240</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" hidden="1">
       <c r="A224" s="1">
         <v>4</v>
       </c>
@@ -6434,7 +6439,7 @@
         <v>153600</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" hidden="1">
       <c r="A226" s="1">
         <v>16</v>
       </c>
@@ -6454,7 +6459,7 @@
         <v>307200</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" hidden="1">
       <c r="A227" s="1">
         <v>32</v>
       </c>
@@ -6474,7 +6479,7 @@
         <v>614400</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" hidden="1">
       <c r="A228" s="1">
         <v>32</v>
       </c>
@@ -6494,7 +6499,7 @@
         <v>1228800</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" hidden="1">
       <c r="A229" s="1">
         <v>32</v>
       </c>
@@ -6514,7 +6519,7 @@
         <v>1843200</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" hidden="1">
       <c r="A230" s="1">
         <v>32</v>
       </c>
@@ -6534,7 +6539,7 @@
         <v>2457600</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" hidden="1">
       <c r="A231" s="1">
         <v>4</v>
       </c>
@@ -6574,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" hidden="1">
       <c r="A233" s="1">
         <v>16</v>
       </c>
@@ -6594,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" hidden="1">
       <c r="A234" s="1">
         <v>32</v>
       </c>
@@ -6614,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" hidden="1">
       <c r="A235" s="1">
         <v>32</v>
       </c>
@@ -6634,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" hidden="1">
       <c r="A236" s="1">
         <v>32</v>
       </c>
@@ -6654,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" hidden="1">
       <c r="A237" s="1">
         <v>32</v>
       </c>
@@ -6674,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" hidden="1">
       <c r="A238" s="1">
         <v>4</v>
       </c>
@@ -6714,7 +6719,7 @@
         <v>153600</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" hidden="1">
       <c r="A240" s="1">
         <v>16</v>
       </c>
@@ -6734,7 +6739,7 @@
         <v>307200</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" hidden="1">
       <c r="A241" s="1">
         <v>32</v>
       </c>
@@ -6754,7 +6759,7 @@
         <v>614400</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" hidden="1">
       <c r="A242" s="1">
         <v>32</v>
       </c>
@@ -6774,7 +6779,7 @@
         <v>1228800</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" hidden="1">
       <c r="A243" s="1">
         <v>32</v>
       </c>
@@ -6794,7 +6799,7 @@
         <v>1843200</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" hidden="1">
       <c r="A244" s="1">
         <v>32</v>
       </c>
@@ -6814,7 +6819,7 @@
         <v>2457600</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" hidden="1">
       <c r="A245" s="1">
         <v>4</v>
       </c>
@@ -6854,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" hidden="1">
       <c r="A247" s="1">
         <v>16</v>
       </c>
@@ -6874,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" hidden="1">
       <c r="A248" s="1">
         <v>32</v>
       </c>
@@ -6894,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" hidden="1">
       <c r="A249" s="1">
         <v>32</v>
       </c>
@@ -6914,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" hidden="1">
       <c r="A250" s="1">
         <v>32</v>
       </c>
@@ -6934,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" hidden="1">
       <c r="A251" s="1">
         <v>32</v>
       </c>
@@ -6954,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" hidden="1">
       <c r="A252" s="1">
         <v>4</v>
       </c>
@@ -6974,7 +6979,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" hidden="1">
       <c r="A253" s="1">
         <v>8</v>
       </c>
@@ -6994,7 +6999,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" hidden="1">
       <c r="A254" s="1">
         <v>16</v>
       </c>
@@ -7014,7 +7019,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" hidden="1">
       <c r="A255" s="1">
         <v>32</v>
       </c>
@@ -7034,7 +7039,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" hidden="1">
       <c r="A256" s="1">
         <v>32</v>
       </c>
@@ -7054,7 +7059,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" hidden="1">
       <c r="A257" s="1">
         <v>32</v>
       </c>
@@ -7074,7 +7079,7 @@
         <v>393216</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" hidden="1">
       <c r="A258" s="1">
         <v>32</v>
       </c>
@@ -7094,7 +7099,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" hidden="1">
       <c r="A259" s="1">
         <v>32</v>
       </c>
@@ -7114,7 +7119,7 @@
         <v>589824</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" hidden="1">
       <c r="A260" s="1">
         <v>16</v>
       </c>
@@ -7134,7 +7139,7 @@
         <v>1830912</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" hidden="1">
       <c r="A261" s="1">
         <v>32</v>
       </c>
@@ -7154,7 +7159,7 @@
         <v>3661824</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" hidden="1">
       <c r="A262" s="1">
         <v>32</v>
       </c>
@@ -7174,7 +7179,7 @@
         <v>7323648</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" hidden="1">
       <c r="A263" s="1">
         <v>32</v>
       </c>
@@ -7194,7 +7199,7 @@
         <v>10985472</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" hidden="1">
       <c r="A264" s="1">
         <v>32</v>
       </c>
@@ -7214,7 +7219,7 @@
         <v>14647296</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" hidden="1">
       <c r="A265" s="1">
         <v>32</v>
       </c>
@@ -7234,7 +7239,7 @@
         <v>18309120</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" hidden="1">
       <c r="A266" s="1">
         <v>64</v>
       </c>
@@ -7254,7 +7259,7 @@
         <v>8192000</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" hidden="1">
       <c r="A267" s="1">
         <v>64</v>
       </c>
@@ -7274,7 +7279,7 @@
         <v>8192000</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" hidden="1">
       <c r="A268" s="1">
         <v>64</v>
       </c>
@@ -7294,7 +7299,7 @@
         <v>16384000</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" hidden="1">
       <c r="A269" s="1">
         <v>64</v>
       </c>
@@ -7314,7 +7319,7 @@
         <v>16384000</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" hidden="1">
       <c r="A270" s="1">
         <v>8</v>
       </c>
@@ -7334,7 +7339,7 @@
         <v>256000</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" hidden="1">
       <c r="A271" s="1">
         <v>8</v>
       </c>
@@ -7354,7 +7359,7 @@
         <v>256000</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" hidden="1">
       <c r="A272" s="1">
         <v>8</v>
       </c>
@@ -7374,7 +7379,7 @@
         <v>256000</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" hidden="1">
       <c r="A273" s="1">
         <v>16</v>
       </c>
@@ -7394,7 +7399,7 @@
         <v>512000</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" hidden="1">
       <c r="A274" s="1">
         <v>16</v>
       </c>
@@ -7414,7 +7419,7 @@
         <v>512000</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" hidden="1">
       <c r="A275" s="1">
         <v>16</v>
       </c>
@@ -7434,7 +7439,7 @@
         <v>512000</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" hidden="1">
       <c r="A276" s="1">
         <v>32</v>
       </c>
@@ -7454,7 +7459,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" hidden="1">
       <c r="A277" s="1">
         <v>32</v>
       </c>
@@ -7474,7 +7479,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" hidden="1">
       <c r="A278" s="1">
         <v>32</v>
       </c>
@@ -7494,7 +7499,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" hidden="1">
       <c r="A279" s="1">
         <v>32</v>
       </c>
@@ -7514,7 +7519,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" hidden="1">
       <c r="A280" s="1">
         <v>32</v>
       </c>
@@ -7534,7 +7539,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" hidden="1">
       <c r="A281" s="1">
         <v>64</v>
       </c>
@@ -7554,7 +7559,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" hidden="1">
       <c r="A282" s="1">
         <v>64</v>
       </c>
@@ -7574,7 +7579,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" hidden="1">
       <c r="A283" s="1">
         <v>64</v>
       </c>
@@ -7594,7 +7599,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" hidden="1">
       <c r="A284" s="1">
         <v>64</v>
       </c>
@@ -7614,7 +7619,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" hidden="1">
       <c r="A285" s="1">
         <v>64</v>
       </c>
@@ -7634,7 +7639,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" hidden="1">
       <c r="A286" s="1">
         <v>64</v>
       </c>
@@ -7654,7 +7659,7 @@
         <v>4096000</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" hidden="1">
       <c r="A287" s="1">
         <v>64</v>
       </c>
@@ -7674,7 +7679,7 @@
         <v>4096000</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" hidden="1">
       <c r="A288" s="1">
         <v>64</v>
       </c>
@@ -7694,7 +7699,7 @@
         <v>4096000</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" hidden="1">
       <c r="A289" s="1">
         <v>64</v>
       </c>
@@ -7714,7 +7719,7 @@
         <v>4096000</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" hidden="1">
       <c r="A290" s="1">
         <v>12</v>
       </c>
@@ -7734,7 +7739,7 @@
         <v>344064</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" hidden="1">
       <c r="A291" s="1">
         <v>24</v>
       </c>
@@ -7754,7 +7759,7 @@
         <v>688128</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" hidden="1">
       <c r="A292" s="1">
         <v>32</v>
       </c>
@@ -7774,7 +7779,7 @@
         <v>1376256</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" hidden="1">
       <c r="A293" s="1">
         <v>32</v>
       </c>
@@ -7794,7 +7799,7 @@
         <v>1376256</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" hidden="1">
       <c r="A294" s="1">
         <v>4</v>
       </c>
@@ -7814,7 +7819,7 @@
         <v>51200</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" hidden="1">
       <c r="A295" s="1">
         <v>8</v>
       </c>
@@ -7854,7 +7859,7 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" hidden="1">
       <c r="A297" s="1">
         <v>32</v>
       </c>
@@ -7874,7 +7879,7 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" hidden="1">
       <c r="A298" s="1">
         <v>8</v>
       </c>
@@ -7894,7 +7899,7 @@
         <v>102400</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" hidden="1">
       <c r="A299" s="1">
         <v>16</v>
       </c>
@@ -7914,7 +7919,7 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" hidden="1">
       <c r="A300" s="1">
         <v>32</v>
       </c>
@@ -7934,7 +7939,7 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" hidden="1">
       <c r="A301" s="1">
         <v>64</v>
       </c>
@@ -7954,7 +7959,7 @@
         <v>819200</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" hidden="1">
       <c r="A302" s="1">
         <v>4</v>
       </c>
@@ -7974,7 +7979,7 @@
         <v>7168</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" hidden="1">
       <c r="A303" s="1">
         <v>8</v>
       </c>
@@ -8014,7 +8019,7 @@
         <v>28672</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" hidden="1">
       <c r="A305" s="1">
         <v>32</v>
       </c>
@@ -8034,7 +8039,7 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" hidden="1">
       <c r="A306" s="1">
         <v>8</v>
       </c>
@@ -8054,7 +8059,7 @@
         <v>28672</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" hidden="1">
       <c r="A307" s="1">
         <v>16</v>
       </c>
@@ -8074,7 +8079,7 @@
         <v>57344</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" hidden="1">
       <c r="A308" s="1">
         <v>32</v>
       </c>
@@ -8094,7 +8099,7 @@
         <v>114688</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" hidden="1">
       <c r="A309" s="1">
         <v>64</v>
       </c>
@@ -8114,7 +8119,7 @@
         <v>229376</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" hidden="1">
       <c r="A310" s="1">
         <v>64</v>
       </c>
@@ -8134,7 +8139,7 @@
         <v>4194304</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" hidden="1">
       <c r="A311" s="1">
         <v>64</v>
       </c>
@@ -8154,7 +8159,7 @@
         <v>4194304</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" hidden="1">
       <c r="A312" s="1">
         <v>64</v>
       </c>
@@ -8174,7 +8179,7 @@
         <v>8388608</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" hidden="1">
       <c r="A313" s="1">
         <v>64</v>
       </c>
@@ -8194,7 +8199,7 @@
         <v>8388608</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" hidden="1">
       <c r="A314" s="1">
         <v>64</v>
       </c>
@@ -8214,7 +8219,7 @@
         <v>8388608</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" hidden="1">
       <c r="A315" s="1">
         <v>64</v>
       </c>
@@ -8234,7 +8239,7 @@
         <v>8388608</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" hidden="1">
       <c r="A316" s="1">
         <v>24</v>
       </c>
@@ -8254,7 +8259,7 @@
         <v>389120</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" hidden="1">
       <c r="A317" s="1">
         <v>48</v>
       </c>
@@ -8274,7 +8279,7 @@
         <v>696320</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" hidden="1">
       <c r="A318" s="1">
         <v>64</v>
       </c>
@@ -8294,7 +8299,7 @@
         <v>1474560</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" hidden="1">
       <c r="A319" s="1">
         <v>64</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>1474560</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" hidden="1">
       <c r="A320" s="1">
         <v>24</v>
       </c>
@@ -8334,7 +8339,7 @@
         <v>389120</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" hidden="1">
       <c r="A321" s="1">
         <v>48</v>
       </c>
@@ -8354,7 +8359,7 @@
         <v>696320</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" hidden="1">
       <c r="A322" s="1">
         <v>64</v>
       </c>
@@ -8374,7 +8379,7 @@
         <v>1474560</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" hidden="1">
       <c r="A323" s="1">
         <v>64</v>
       </c>
@@ -8394,7 +8399,7 @@
         <v>1474560</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" hidden="1">
       <c r="A324" s="1">
         <v>8</v>
       </c>
@@ -8414,7 +8419,7 @@
         <v>409600</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" hidden="1">
       <c r="A325" s="1">
         <v>1</v>
       </c>
@@ -8434,7 +8439,7 @@
         <v>51200</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" hidden="1">
       <c r="A326" s="1">
         <v>2</v>
       </c>
@@ -8494,7 +8499,7 @@
         <v>90112</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" hidden="1">
       <c r="A329" s="1">
         <v>16</v>
       </c>
@@ -8514,7 +8519,7 @@
         <v>180224</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" hidden="1">
       <c r="A330" s="1">
         <v>32</v>
       </c>
@@ -8534,7 +8539,7 @@
         <v>360448</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" hidden="1">
       <c r="A331" s="1">
         <v>32</v>
       </c>
@@ -8554,7 +8559,7 @@
         <v>720896</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" hidden="1">
       <c r="A332" s="1">
         <v>32</v>
       </c>
@@ -8574,7 +8579,7 @@
         <v>391168</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" hidden="1">
       <c r="A333" s="1">
         <v>64</v>
       </c>
@@ -8594,7 +8599,7 @@
         <v>391168</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" hidden="1">
       <c r="A334" s="1">
         <v>32</v>
       </c>
@@ -8614,7 +8619,7 @@
         <v>391168</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" hidden="1">
       <c r="A335" s="1">
         <v>64</v>
       </c>
@@ -8634,7 +8639,7 @@
         <v>391168</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" hidden="1">
       <c r="A336" s="1">
         <v>32</v>
       </c>
@@ -8654,7 +8659,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" hidden="1">
       <c r="A337" s="1">
         <v>32</v>
       </c>
@@ -8674,7 +8679,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" hidden="1">
       <c r="A338" s="1">
         <v>64</v>
       </c>
@@ -8694,7 +8699,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" hidden="1">
       <c r="A339" s="1">
         <v>64</v>
       </c>
@@ -8714,7 +8719,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" hidden="1">
       <c r="A340" s="1">
         <v>32</v>
       </c>
@@ -8734,7 +8739,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" hidden="1">
       <c r="A341" s="1">
         <v>32</v>
       </c>
@@ -8754,7 +8759,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" hidden="1">
       <c r="A342" s="1">
         <v>64</v>
       </c>
@@ -8774,7 +8779,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" hidden="1">
       <c r="A343" s="1">
         <v>64</v>
       </c>
@@ -8794,7 +8799,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" hidden="1">
       <c r="A344" s="1">
         <v>64</v>
       </c>
@@ -8814,7 +8819,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" hidden="1">
       <c r="A345" s="1">
         <v>64</v>
       </c>
@@ -8834,7 +8839,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" hidden="1">
       <c r="A346" s="1">
         <v>64</v>
       </c>
@@ -8854,7 +8859,7 @@
         <v>2048000</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" hidden="1">
       <c r="A347" s="1">
         <v>64</v>
       </c>
@@ -8875,6 +8880,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F347">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="14336"/>
+        <filter val="16384"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>